--- a/biology/Médecine/Anneau_de_Cabot/Anneau_de_Cabot.xlsx
+++ b/biology/Médecine/Anneau_de_Cabot/Anneau_de_Cabot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anneau de Cabot est une structure cellulaire parfois présente dans le globule rouge et correspondant à des vestiges de fuseau mitotique.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anneau est décrit en 1903 par Richard Clarke Cabot (en)[1] médecin américain et d'abord connu sous le nom de Cabot's ring body[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anneau est décrit en 1903 par Richard Clarke Cabot (en) médecin américain et d'abord connu sous le nom de Cabot's ring body.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inclusion cellulaire anormale en forme d'anneau, parfois tourné en huit[2] ayant l'aspect de fins filaments rouge-violet formant un anneau ou une boucle à l'intérieur d'une hématie le plus souvent polychromatophile (souvent de pair avec une ponctuation basophile), correspondant à des reliquats des microtubules du fuseau mitotique[3],[4]. Sauf situations exceptionnelles, leur nombre est toujours très faible, moins d'une hématie anormale pour 20 à 30 champs de microscope[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inclusion cellulaire anormale en forme d'anneau, parfois tourné en huit ayant l'aspect de fins filaments rouge-violet formant un anneau ou une boucle à l'intérieur d'une hématie le plus souvent polychromatophile (souvent de pair avec une ponctuation basophile), correspondant à des reliquats des microtubules du fuseau mitotique,. Sauf situations exceptionnelles, leur nombre est toujours très faible, moins d'une hématie anormale pour 20 à 30 champs de microscope.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Signification pathologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type d'anomalies s’observe surtout lors d'anémies sévères, dans les grandes dysérythropoïèses (anémies mégaloblastiques, myélodysplasies, …), la splénomégalie myéloïde, en cas de saturnisme, et parfois chez les patients splénectomisés[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type d'anomalies s’observe surtout lors d'anémies sévères, dans les grandes dysérythropoïèses (anémies mégaloblastiques, myélodysplasies, …), la splénomégalie myéloïde, en cas de saturnisme, et parfois chez les patients splénectomisés,.
 </t>
         </is>
       </c>
